--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="195" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="234" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Aufbau Berechnungsbeispiele mit Grafiken, Kampf mit CCS beim Versuch beispiel zum laufen zu bringen (Kampf verloren)</t>
+  </si>
+  <si>
+    <t>Erstellung Präsentation für den nächsten Tag, Lerntagebuch schreiben</t>
   </si>
   <si>
     <t>Summe</t>
@@ -208,8 +211,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -469,6 +472,12 @@
         <f aca="false">A28+1</f>
         <v>42669</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
@@ -505,11 +514,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>36.25</v>
+        <v>39.25</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +753,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -986,7 +995,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1228,7 +1237,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -473,7 +473,7 @@
         <v>42669</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>17</v>
@@ -518,7 +518,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>39.25</v>
+        <v>40.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="234" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="161" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -74,7 +74,13 @@
     <t>Erstellung Präsentation für den nächsten Tag, Lerntagebuch schreiben</t>
   </si>
   <si>
+    <t>Erstellung SoftwareWrapper um Simulationskoordinaten mit Moving Head darstellen zu können</t>
+  </si>
+  <si>
     <t>Summe</t>
+  </si>
+  <si>
+    <t>Tests mit Wrapper vom 31.10.; Erweiterung um Beschleunigung des MH und Synchronisation Software ↔ MH</t>
   </si>
 </sst>
 </file>
@@ -211,8 +217,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -508,17 +514,23 @@
         <f aca="false">A33+1</f>
         <v>42674</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>40.5</v>
+        <v>46.5</v>
       </c>
     </row>
   </sheetData>
@@ -539,8 +551,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -570,6 +582,12 @@
       <c r="A4" s="4" t="n">
         <v>42675</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -753,11 +771,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3" t="n">
-        <f aca="false">SUM(B5:B34)</f>
-        <v>0</v>
+        <f aca="false">SUM(B4:B34)</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +1013,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1237,7 +1255,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Tests mit Wrapper vom 31.10.; Erweiterung um Beschleunigung des MH und Synchronisation Software ↔ MH</t>
+  </si>
+  <si>
+    <t>Beginn Implementierung Kalibrierer</t>
+  </si>
+  <si>
+    <t>Weiterarbeit Implementierer (inklusive Tests), Lerntagebuch schreiben</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -624,6 +630,12 @@
         <f aca="false">A9+1</f>
         <v>42681</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -636,6 +648,12 @@
         <f aca="false">A11+1</f>
         <v>42683</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
@@ -775,7 +793,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B4:B34)</f>
-        <v>7.5</v>
+        <v>14.25</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -649,7 +649,7 @@
         <v>42683</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4.75</v>
+        <v>8.25</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>22</v>
@@ -793,7 +793,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B4:B34)</f>
-        <v>14.25</v>
+        <v>17.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="161" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="111" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Weiterarbeit Implementierer (inklusive Tests), Lerntagebuch schreiben</t>
+  </si>
+  <si>
+    <t>Arbeit am Server (erweiterungen und Bugfixes)</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -684,6 +687,12 @@
         <f aca="false">A16+1</f>
         <v>42688</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
@@ -793,7 +802,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B4:B34)</f>
-        <v>17.75</v>
+        <v>25.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="111" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="77" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -89,7 +89,16 @@
     <t>Weiterarbeit Implementierer (inklusive Tests), Lerntagebuch schreiben</t>
   </si>
   <si>
-    <t>Arbeit am Server (erweiterungen und Bugfixes)</t>
+    <t>Arbeit am Server (erweiterungen und Bugfixes); Umstellung auf Echtzeit-System</t>
+  </si>
+  <si>
+    <t>Implementierung neues Koordinatensystem, erste sehr kleine Tests mit neuem Server</t>
+  </si>
+  <si>
+    <t>Arbeit am Config-System (funktioniert)</t>
+  </si>
+  <si>
+    <t>Lerntagebuch schreiben, Dokuente auf Stand bringen</t>
   </si>
 </sst>
 </file>
@@ -182,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,6 +214,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -561,7 +574,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -700,10 +713,16 @@
         <v>42689</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <f aca="false">A18+1</f>
         <v>42690</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,6 +730,12 @@
         <f aca="false">A19+1</f>
         <v>42691</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
@@ -747,6 +772,12 @@
         <f aca="false">A25+1</f>
         <v>42697</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
@@ -802,7 +833,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B4:B34)</f>
-        <v>25.75</v>
+        <v>29.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="77" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="32" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -98,7 +98,7 @@
     <t>Arbeit am Config-System (funktioniert)</t>
   </si>
   <si>
-    <t>Lerntagebuch schreiben, Dokuente auf Stand bringen</t>
+    <t>Lerntagebuch schreiben, Dokuente auf Stand bringen, Teammeeting</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -773,7 +773,7 @@
         <v>42697</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>26</v>
@@ -833,7 +833,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B4:B34)</f>
-        <v>29.75</v>
+        <v>30.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Lerntagebuch schreiben, Dokuente auf Stand bringen, Teammeeting</t>
+  </si>
+  <si>
+    <t>Einbau der erweiterten Stubs in AlienServer, Erweiterung der Logfunktionalität, kleiner Bugfix</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -790,6 +793,12 @@
         <f aca="false">A27+1</f>
         <v>42699</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
@@ -833,7 +842,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B4:B34)</f>
-        <v>30.75</v>
+        <v>33.25</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="32" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="38" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Einbau der erweiterten Stubs in AlienServer, Erweiterung der Logfunktionalität, kleiner Bugfix</t>
+  </si>
+  <si>
+    <t>Tests mit neuen Stubs; Suche nach Bug</t>
+  </si>
+  <si>
+    <t>Teammeeting und Bughunting am Server</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="C33 C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -576,8 +582,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -817,18 +823,30 @@
         <f aca="false">A30+1</f>
         <v>42702</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
         <f aca="false">A31+1</f>
         <v>42703</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <f aca="false">A32+1</f>
         <v>42704</v>
       </c>
+      <c r="B33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
@@ -842,7 +860,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B4:B34)</f>
-        <v>33.25</v>
+        <v>45.25</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +882,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C33 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -1106,7 +1124,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="C33 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="38" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="162" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Teammeeting und Bughunting am Server</t>
+  </si>
+  <si>
+    <t>Umschreiben Berechner, Tests mit Realbeispiel</t>
+  </si>
+  <si>
+    <t>Meeting, Umschreiben MHControl</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="C33 C35"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -582,8 +588,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -881,8 +887,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C33 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -936,6 +942,12 @@
         <f aca="false">A7+1</f>
         <v>42709</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -948,6 +960,12 @@
         <f aca="false">A9+1</f>
         <v>42711</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -1102,7 +1120,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1142,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="C33 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Meeting, Umschreiben MHControl</t>
+  </si>
+  <si>
+    <t>Tests MHControl</t>
   </si>
 </sst>
 </file>
@@ -888,7 +891,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -972,6 +975,12 @@
         <f aca="false">A10+1</f>
         <v>42712</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
@@ -1120,7 +1129,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="162" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="329" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -110,6 +110,9 @@
     <t>Teammeeting und Bughunting am Server</t>
   </si>
   <si>
+    <t>Weitere Tests am Server, Auffinden der Unmöglichkeit, ihn zu retten</t>
+  </si>
+  <si>
     <t>Umschreiben Berechner, Tests mit Realbeispiel</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
   </si>
   <si>
     <t>Tests MHControl</t>
+  </si>
+  <si>
+    <t>Weiterarbeit am Server (genauere Spezifizierung der API und Aufgabenverteilung); Lerntagebuch schreiben</t>
   </si>
 </sst>
 </file>
@@ -890,8 +896,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -927,6 +933,12 @@
         <f aca="false">A4+1</f>
         <v>42706</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -949,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,6 +999,12 @@
         <f aca="false">A11+1</f>
         <v>42713</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
@@ -1129,7 +1147,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Thomas Rienoeßl.xlsx
+++ b/Zeitblaetter/Thomas Rienoeßl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="329" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="162" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -122,7 +122,19 @@
     <t>Tests MHControl</t>
   </si>
   <si>
-    <t>Weiterarbeit am Server (genauere Spezifizierung der API und Aufgabenverteilung); Lerntagebuch schreiben</t>
+    <t>Weiterarbeit am Server (genauere Spezifizierung der API und Aufgabenverteilung, Anpassung von Parametern bei MH-Control); Lerntagebuch schreiben</t>
+  </si>
+  <si>
+    <t>Tests mit angepasster MH-Steuerung (wegen Pong-Gruppe), Anpassung API des Berechners</t>
+  </si>
+  <si>
+    <t>Kleine Anpassungen an Java-Interfaces</t>
+  </si>
+  <si>
+    <t>Fehlerbehebungen an MH-Control (API war noch falsch, kleinere Bugfixes), Calibrators für MH-X25 und Spielfeld erstellt</t>
+  </si>
+  <si>
+    <t>Teammeeting (Besprechung Stand und weiteres Vorgehen), gemeinsames Mergen von Branches zwecks Integration, Hinzufügen eines Rückgabewerts bei kick() um Board Arbeit abzunehmen</t>
   </si>
 </sst>
 </file>
@@ -896,8 +908,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -1017,24 +1029,48 @@
         <f aca="false">A13+1</f>
         <v>42715</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <f aca="false">A14+1</f>
         <v>42716</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <f aca="false">A15+1</f>
         <v>42717</v>
       </c>
+      <c r="B16" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <f aca="false">A16+1</f>
         <v>42718</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
@@ -1147,7 +1183,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>19</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
